--- a/script/Pr_temp_spreadsheets/05_00_ARC05_9_2B.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_9_2B.xlsx
@@ -1656,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{af33508a-4ca7-4cde-b3e6-1b44fd12346b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1e887f3c-d40b-4903-92dd-9f0bbcefd580}">
   <dimension ref="A1:B227"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -3490,7 +3490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ed1c1c-1868-426c-87ed-24115edb47eb}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a3564993-1f44-4c38-b6d8-275453364712}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
